--- a/第11组/项目计划表.xlsx
+++ b/第11组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -59,19 +59,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.熟悉需求文档。2.确定用例，参与者（普通用户）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求文档。2.确定用例，参与者（管理员）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求文档。2.确定用例，参与者（管理员）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求文档。2.确定用例，参与者（普通用户）</t>
+    <t>1.熟悉需求文档。2.确定用例，参与者（普通用户）,功能模块（登录注册）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求文档。2.确定用例，参与者（普通用户）,功能模块（好友管理）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求文档。2.确定用例，参与者（普通用户）,功能模块（群管理）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求文档。2.确定用例，参与者（普通用户）,功能模块（个人信息维护）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求文档。2.确定用例，参与者（管理员）,功能模块（群管理）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,12 +467,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="2" max="2" width="68.625" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
@@ -498,7 +506,9 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -506,9 +516,11 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -516,9 +528,11 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -528,7 +542,9 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -536,9 +552,11 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">

--- a/第11组/项目计划表.xlsx
+++ b/第11组/项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用例图（普通用户）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用例图（群管理）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用例图（系统管理员）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用例图（系统管理员）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -167,8 +183,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -467,12 +511,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="68.625" customWidth="1"/>
+    <col min="2" max="2" width="72.125" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
@@ -596,32 +640,50 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>

--- a/第11组/项目计划表.xlsx
+++ b/第11组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -646,6 +646,9 @@
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -655,6 +658,9 @@
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -664,7 +670,9 @@
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -674,7 +682,9 @@
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -684,7 +694,9 @@
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
